--- a/biology/Botanique/École_supérieure_d'architecture_des_jardins_et_des_paysages/École_supérieure_d'architecture_des_jardins_et_des_paysages.xlsx
+++ b/biology/Botanique/École_supérieure_d'architecture_des_jardins_et_des_paysages/École_supérieure_d'architecture_des_jardins_et_des_paysages.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_sup%C3%A9rieure_d%27architecture_des_jardins_et_des_paysages</t>
+          <t>École_supérieure_d'architecture_des_jardins_et_des_paysages</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'École supérieure d'architecture des jardins et des paysages (ESAJ) est une école privée française fondée en 1966[1], sous le statut d'association loi de 1901. Elle forme des paysagistes concepteurs et accueille en moyenne 90 élèves, répartis sur cinq années d'étude. Reconnue par la Fédération Française du Paysage (FFP) et l'International Federation of Landscape Architects (IFLA), l'ESAJ délivre en 3 ans un Bachelor d’assistant paysagiste, et en 5 ans un diplôme de niveau Master européen de Paysagiste-ESAJ / Landscape Architect. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École supérieure d'architecture des jardins et des paysages (ESAJ) est une école privée française fondée en 1966, sous le statut d'association loi de 1901. Elle forme des paysagistes concepteurs et accueille en moyenne 90 élèves, répartis sur cinq années d'étude. Reconnue par la Fédération Française du Paysage (FFP) et l'International Federation of Landscape Architects (IFLA), l'ESAJ délivre en 3 ans un Bachelor d’assistant paysagiste, et en 5 ans un diplôme de niveau Master européen de Paysagiste-ESAJ / Landscape Architect. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_sup%C3%A9rieure_d%27architecture_des_jardins_et_des_paysages</t>
+          <t>École_supérieure_d'architecture_des_jardins_et_des_paysages</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Admission</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'accès à l'ESAJ se réalise par Parcoursup ou sur dossier. Dans les deux cas, le candidat doit passer par un entretien permettant de présenter sa culture générale et sa motivation. Le minimum requis pour l'entrée en première année est l'obtention d'un baccalauréat. Les étudiants qui ont validé deux années d’études supérieures (BTS « Aménagements paysagers »), ou une licence sur 3 ans, peuvent être admis après un entretien, accompagné de portfolios et de documents sur les travaux réalisés.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_sup%C3%A9rieure_d%27architecture_des_jardins_et_des_paysages</t>
+          <t>École_supérieure_d'architecture_des_jardins_et_des_paysages</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Programme des études</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ESAJ propose deux formations :
 Un bachelor ESAJ assistant-paysagiste (180 crédits ECTS) ;
